--- a/IO Analysis/Output.xlsx
+++ b/IO Analysis/Output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,16 @@
           <t>임금유발효과</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>공급지장효과</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>물가파급효과</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -487,6 +497,12 @@
       <c r="G2" t="n">
         <v>0.000403010990967128</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.02256413734245979</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.009107784222561883</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -510,6 +526,12 @@
       <c r="G3" t="n">
         <v>3.257985341230663e-05</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.002358067963942544</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.01581974047559979</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -533,6 +555,12 @@
       <c r="G4" t="n">
         <v>0.0007853264893044249</v>
       </c>
+      <c r="H4" t="n">
+        <v>0.0482086908343771</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.01376202106628209</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -556,6 +584,12 @@
       <c r="G5" t="n">
         <v>0.0006496572972399274</v>
       </c>
+      <c r="H5" t="n">
+        <v>0.02303064995765789</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0157519709697938</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +613,12 @@
       <c r="G6" t="n">
         <v>0.001326999166105737</v>
       </c>
+      <c r="H6" t="n">
+        <v>0.02799185752879087</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.01496776303122833</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -602,6 +642,12 @@
       <c r="G7" t="n">
         <v>0.0001571965501082747</v>
       </c>
+      <c r="H7" t="n">
+        <v>0.02124331091024742</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.01021826305813902</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -625,6 +671,12 @@
       <c r="G8" t="n">
         <v>0.002109475933789388</v>
       </c>
+      <c r="H8" t="n">
+        <v>0.1377180462522412</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.02083724421405918</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -648,6 +700,12 @@
       <c r="G9" t="n">
         <v>1.381187686494165e-05</v>
       </c>
+      <c r="H9" t="n">
+        <v>0.0319290329726216</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01250667264027759</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -671,6 +729,12 @@
       <c r="G10" t="n">
         <v>0.0008516325306827714</v>
       </c>
+      <c r="H10" t="n">
+        <v>0.1149511341816322</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.01474548330265992</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -694,6 +758,12 @@
       <c r="G11" t="n">
         <v>0.002673287462238559</v>
       </c>
+      <c r="H11" t="n">
+        <v>0.05084057193348695</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.02268648205942355</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -717,6 +787,12 @@
       <c r="G12" t="n">
         <v>0.002747763178775162</v>
       </c>
+      <c r="H12" t="n">
+        <v>0.1037344629142196</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.02729133211927603</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -740,6 +816,12 @@
       <c r="G13" t="n">
         <v>0.002626427006696795</v>
       </c>
+      <c r="H13" t="n">
+        <v>0.03438932181006518</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.03203595345604496</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -763,6 +845,12 @@
       <c r="G14" t="n">
         <v>0.001320217129014077</v>
       </c>
+      <c r="H14" t="n">
+        <v>0.05330017410412768</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.01884564935366992</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -786,6 +874,12 @@
       <c r="G15" t="n">
         <v>0.0005003864617014292</v>
       </c>
+      <c r="H15" t="n">
+        <v>0.08202318100821591</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.01753958780875814</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -809,6 +903,12 @@
       <c r="G16" t="n">
         <v>0.0004998162546599159</v>
       </c>
+      <c r="H16" t="n">
+        <v>0.009680648754256857</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.01734357055315714</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -832,6 +932,12 @@
       <c r="G17" t="n">
         <v>0.01095057833789106</v>
       </c>
+      <c r="H17" t="n">
+        <v>0.02149174303828361</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.04029735981139366</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -855,6 +961,12 @@
       <c r="G18" t="n">
         <v>0.001410709033837208</v>
       </c>
+      <c r="H18" t="n">
+        <v>0.02388267409425274</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01927712287041889</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -878,6 +990,12 @@
       <c r="G19" t="n">
         <v>0.004457254062612171</v>
       </c>
+      <c r="H19" t="n">
+        <v>0.02091855785875852</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.02877713494043953</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -901,6 +1019,12 @@
       <c r="G20" t="n">
         <v>0.002763964627054115</v>
       </c>
+      <c r="H20" t="n">
+        <v>0.08300651940308268</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.02529795354110781</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -924,6 +1048,12 @@
       <c r="G21" t="n">
         <v>0.007590306990806998</v>
       </c>
+      <c r="H21" t="n">
+        <v>0.08942651623368451</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.02323166601071184</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -947,6 +1077,12 @@
       <c r="G22" t="n">
         <v>0.003771950058160265</v>
       </c>
+      <c r="H22" t="n">
+        <v>0.04641316720906302</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.01534361799930816</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -970,6 +1106,12 @@
       <c r="G23" t="n">
         <v>0.00427773182285221</v>
       </c>
+      <c r="H23" t="n">
+        <v>0.05959366251966199</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.02149316765192722</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -993,6 +1135,12 @@
       <c r="G24" t="n">
         <v>0.006671563833771586</v>
       </c>
+      <c r="H24" t="n">
+        <v>0.03838606771774815</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.02687197334250465</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1016,6 +1164,12 @@
       <c r="G25" t="n">
         <v>0.004469170722891701</v>
       </c>
+      <c r="H25" t="n">
+        <v>0.03251958433953893</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.01742676708719199</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1039,6 +1193,12 @@
       <c r="G26" t="n">
         <v>0.0009550606292711161</v>
       </c>
+      <c r="H26" t="n">
+        <v>0.0413612796886195</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.01056611099951198</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1062,6 +1222,12 @@
       <c r="G27" t="n">
         <v>0.04407184833890414</v>
       </c>
+      <c r="H27" t="n">
+        <v>0.1288245884882213</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1261556985923458</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1085,6 +1251,12 @@
       <c r="G28" t="n">
         <v>0.01663732312336647</v>
       </c>
+      <c r="H28" t="n">
+        <v>0.01459351630838937</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.03912289006090496</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1108,6 +1280,12 @@
       <c r="G29" t="n">
         <v>0.0002241374640553047</v>
       </c>
+      <c r="H29" t="n">
+        <v>0.02673675627728317</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.005796911331704404</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1131,6 +1309,12 @@
       <c r="G30" t="n">
         <v>0.0005535508518832215</v>
       </c>
+      <c r="H30" t="n">
+        <v>0.07613263912311462</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.008002749964696305</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1154,6 +1338,12 @@
       <c r="G31" t="n">
         <v>0.0008537853584321684</v>
       </c>
+      <c r="H31" t="n">
+        <v>0.08360359268249792</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.01041077258177146</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1177,6 +1367,12 @@
       <c r="G32" t="n">
         <v>0.0007095303094556676</v>
       </c>
+      <c r="H32" t="n">
+        <v>0.02284469546120639</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.01307730529236664</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1200,6 +1396,12 @@
       <c r="G33" t="n">
         <v>0.001197555370349725</v>
       </c>
+      <c r="H33" t="n">
+        <v>0.01925274289618219</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.01312955991025765</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1223,6 +1425,12 @@
       <c r="G34" t="n">
         <v>0</v>
       </c>
+      <c r="H34" t="n">
+        <v>0.002370156864177904</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.01304519593086806</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1238,6 +1446,8 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
